--- a/BOM/resffb-BOM.xlsx
+++ b/BOM/resffb-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gensler365-my.sharepoint.com/personal/benjamin_regnier_gensler_com/Documents/Personal/Synth/FFB/resffb/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{3C696EC1-4CF7-4F89-83FE-928D75087ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBD78BFD-8AC9-4F10-BBFE-49BBA78D44DB}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{3C696EC1-4CF7-4F89-83FE-928D75087ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4CE958E-82EF-41FA-899F-78EDBE19A064}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{816CD20A-ED52-4724-B36E-A5CA505061D5}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="12405" xr2:uid="{816CD20A-ED52-4724-B36E-A5CA505061D5}"/>
   </bookViews>
   <sheets>
     <sheet name="RESFFB" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="87">
   <si>
     <t>Id</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>1% Metal Film</t>
+  </si>
+  <si>
+    <t>Film or C0G</t>
   </si>
 </sst>
 </file>
@@ -729,7 +732,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,7 +882,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
